--- a/Test/output_path/config_result.xlsx
+++ b/Test/output_path/config_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="140">
   <si>
     <t>Model</t>
   </si>
@@ -346,6 +346,12 @@
     <t>Secondary Energy|Liquids|Oil</t>
   </si>
   <si>
+    <t>Terrestrial Biodiversity|Biodiversity Intactness Index</t>
+  </si>
+  <si>
+    <t>Terrestrial Biodiversity|Biodiversity Intactness Index|Cropland Landscapes</t>
+  </si>
+  <si>
     <t>Trade|Agriculture|Crops</t>
   </si>
   <si>
@@ -410,6 +416,9 @@
   </si>
   <si>
     <t>million ha</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>Mton</t>
@@ -782,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ85"/>
+  <dimension ref="A1:AJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,7 +799,7 @@
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="36" width="6.7109375" customWidth="1"/>
   </cols>
@@ -919,7 +928,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>48.7346</v>
@@ -1029,7 +1038,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H3">
         <v>1.1698</v>
@@ -1133,7 +1142,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H4">
         <v>0.1681</v>
@@ -1198,7 +1207,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5">
         <v>94.855</v>
@@ -1308,7 +1317,7 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H6">
         <v>0.2618</v>
@@ -1403,7 +1412,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H7">
         <v>1.0369</v>
@@ -1492,7 +1501,7 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H8">
         <v>0.09520000000000001</v>
@@ -1575,7 +1584,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H9">
         <v>0.0007</v>
@@ -1676,7 +1685,7 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H10">
         <v>0.0202</v>
@@ -1735,7 +1744,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F11">
         <v>1552.323</v>
@@ -1845,7 +1854,7 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F12">
         <v>0.1683</v>
@@ -1955,7 +1964,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F13">
         <v>8.348000000000001</v>
@@ -2065,7 +2074,7 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F14">
         <v>94.855</v>
@@ -2175,7 +2184,7 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F15">
         <v>1.443</v>
@@ -2285,7 +2294,7 @@
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F16">
         <v>0.025</v>
@@ -2395,7 +2404,7 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F17">
         <v>0.0073</v>
@@ -2505,7 +2514,7 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18">
         <v>5.004</v>
@@ -2615,7 +2624,7 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19">
         <v>0.089</v>
@@ -2725,7 +2734,7 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20">
         <v>0.023</v>
@@ -2835,7 +2844,7 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F21">
         <v>0.0139</v>
@@ -2945,7 +2954,7 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22">
         <v>0.404</v>
@@ -3055,7 +3064,7 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F23">
         <v>3687.3907</v>
@@ -3165,7 +3174,7 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F24">
         <v>12.9304</v>
@@ -3230,7 +3239,7 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25">
         <v>0.9429999999999999</v>
@@ -3340,7 +3349,7 @@
         <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F26">
         <v>150.713</v>
@@ -3450,7 +3459,7 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F27">
         <v>86.2559</v>
@@ -3515,7 +3524,7 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F28">
         <v>1702.5456</v>
@@ -3580,7 +3589,7 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F29">
         <v>463.7892</v>
@@ -3645,7 +3654,7 @@
         <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F30">
         <v>349.3013</v>
@@ -3710,7 +3719,7 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F31">
         <v>0.8204</v>
@@ -3820,7 +3829,7 @@
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32">
         <v>86.2559</v>
@@ -3885,7 +3894,7 @@
         <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F33">
         <v>1.0415</v>
@@ -3986,7 +3995,7 @@
         <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F34">
         <v>7.5884</v>
@@ -4096,7 +4105,7 @@
         <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F35">
         <v>186.3915</v>
@@ -4206,7 +4215,7 @@
         <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F36">
         <v>852.0308</v>
@@ -4271,7 +4280,7 @@
         <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F37">
         <v>0.9525999999999999</v>
@@ -4336,7 +4345,7 @@
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F38">
         <v>0.0001716</v>
@@ -4446,7 +4455,7 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F39">
         <v>8.348000000000001</v>
@@ -4556,7 +4565,7 @@
         <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F40">
         <v>0.0001716</v>
@@ -4666,7 +4675,7 @@
         <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F41">
         <v>7.01E-05</v>
@@ -4776,7 +4785,7 @@
         <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F42">
         <v>37.2296</v>
@@ -4886,7 +4895,7 @@
         <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F43">
         <v>39.6973</v>
@@ -4996,7 +5005,7 @@
         <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F44">
         <v>2.6658</v>
@@ -5025,7 +5034,7 @@
         <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F45">
         <v>71186.03599999999</v>
@@ -5090,7 +5099,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F46">
         <v>766.7380000000001</v>
@@ -5200,7 +5209,7 @@
         <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F47">
         <v>0.0033</v>
@@ -5301,7 +5310,7 @@
         <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H48">
         <v>3353.6763</v>
@@ -5405,7 +5414,7 @@
         <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F49">
         <v>0.0094</v>
@@ -5515,7 +5524,7 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H50">
         <v>58.0176</v>
@@ -5586,7 +5595,7 @@
         <v>87</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H51">
         <v>778.0768</v>
@@ -5681,7 +5690,7 @@
         <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H52">
         <v>1126.0773</v>
@@ -5770,7 +5779,7 @@
         <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H53">
         <v>2.7972</v>
@@ -5871,7 +5880,7 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H54">
         <v>28.4537</v>
@@ -5930,7 +5939,7 @@
         <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H55">
         <v>262.1093</v>
@@ -6034,7 +6043,7 @@
         <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F56">
         <v>187.8521</v>
@@ -6144,7 +6153,7 @@
         <v>93</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F57">
         <v>3.3298</v>
@@ -6254,7 +6263,7 @@
         <v>94</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F58">
         <v>2.605</v>
@@ -6364,7 +6373,7 @@
         <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F59">
         <v>89.6211</v>
@@ -6474,7 +6483,7 @@
         <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F60">
         <v>5.6039</v>
@@ -6584,7 +6593,7 @@
         <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F61">
         <v>42.5989</v>
@@ -6694,7 +6703,7 @@
         <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F62">
         <v>0.0293</v>
@@ -6804,7 +6813,7 @@
         <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F63">
         <v>0.4769</v>
@@ -6911,7 +6920,7 @@
         <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F64">
         <v>170.231</v>
@@ -7021,7 +7030,7 @@
         <v>101</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F65">
         <v>0.0064982</v>
@@ -7131,7 +7140,7 @@
         <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F66">
         <v>0.0471859</v>
@@ -7241,7 +7250,7 @@
         <v>103</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F67">
         <v>0.3755</v>
@@ -7351,7 +7360,7 @@
         <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F68">
         <v>2.2721</v>
@@ -7461,7 +7470,7 @@
         <v>105</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F69">
         <v>123.2146</v>
@@ -7571,7 +7580,7 @@
         <v>106</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F70">
         <v>0.1174</v>
@@ -7681,7 +7690,7 @@
         <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F71">
         <v>4.7591</v>
@@ -7791,7 +7800,7 @@
         <v>108</v>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F72">
         <v>0.303</v>
@@ -7901,7 +7910,7 @@
         <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F73">
         <v>0.1788</v>
@@ -8011,7 +8020,7 @@
         <v>109</v>
       </c>
       <c r="E74" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F74">
         <v>8.348100000000001</v>
@@ -8121,100 +8130,100 @@
         <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F75">
-        <v>2.3121</v>
+        <v>121.159</v>
       </c>
       <c r="G75">
-        <v>2.3095</v>
+        <v>120.956</v>
       </c>
       <c r="H75">
-        <v>2.2863</v>
+        <v>120.829</v>
       </c>
       <c r="I75">
-        <v>2.2633</v>
+        <v>120.698</v>
       </c>
       <c r="J75">
-        <v>2.2407</v>
+        <v>120.564</v>
       </c>
       <c r="K75">
-        <v>2.2185</v>
+        <v>120.425</v>
       </c>
       <c r="L75">
-        <v>2.1964</v>
+        <v>120.283</v>
       </c>
       <c r="M75">
-        <v>2.1742</v>
+        <v>120.136</v>
       </c>
       <c r="N75">
-        <v>2.1525</v>
+        <v>119.985</v>
       </c>
       <c r="O75">
-        <v>2.0877</v>
+        <v>119.829</v>
       </c>
       <c r="P75">
-        <v>2.0253</v>
+        <v>119.668</v>
       </c>
       <c r="Q75">
-        <v>1.9643</v>
+        <v>119.503</v>
       </c>
       <c r="R75">
-        <v>1.9055</v>
+        <v>119.332</v>
       </c>
       <c r="S75">
-        <v>1.8488</v>
+        <v>119.156</v>
       </c>
       <c r="T75">
-        <v>1.7561</v>
+        <v>118.975</v>
       </c>
       <c r="U75">
-        <v>1.6686</v>
+        <v>118.788</v>
       </c>
       <c r="V75">
-        <v>1.5848</v>
+        <v>118.595</v>
       </c>
       <c r="W75">
-        <v>1.5059</v>
+        <v>118.396</v>
       </c>
       <c r="X75">
-        <v>1.4303</v>
+        <v>118.19</v>
       </c>
       <c r="Y75">
-        <v>1.2872</v>
+        <v>117.978</v>
       </c>
       <c r="Z75">
-        <v>1.1586</v>
+        <v>117.759</v>
       </c>
       <c r="AA75">
-        <v>1.0424</v>
+        <v>117.533</v>
       </c>
       <c r="AB75">
-        <v>0.9385</v>
+        <v>117.3</v>
       </c>
       <c r="AC75">
-        <v>0.8444</v>
+        <v>117.059</v>
       </c>
       <c r="AD75">
-        <v>0.4224</v>
+        <v>116.81</v>
       </c>
       <c r="AE75">
-        <v>0.2109</v>
+        <v>116.553</v>
       </c>
       <c r="AF75">
-        <v>0.1059</v>
+        <v>116.287</v>
       </c>
       <c r="AG75">
-        <v>0.0528</v>
+        <v>116.012</v>
       </c>
       <c r="AH75">
-        <v>0.0266</v>
+        <v>115.728</v>
       </c>
       <c r="AI75">
-        <v>0.0137</v>
+        <v>115.423</v>
       </c>
       <c r="AJ75">
-        <v>0.0061</v>
+        <v>114.985</v>
       </c>
     </row>
     <row r="76" spans="1:36">
@@ -8231,100 +8240,100 @@
         <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F76">
-        <v>3.2796</v>
+        <v>11.091</v>
       </c>
       <c r="G76">
-        <v>3.334</v>
+        <v>11.603</v>
       </c>
       <c r="H76">
-        <v>3.4103</v>
+        <v>11.905</v>
       </c>
       <c r="I76">
-        <v>3.4891</v>
+        <v>12.214</v>
       </c>
       <c r="J76">
-        <v>3.5713</v>
+        <v>12.532</v>
       </c>
       <c r="K76">
-        <v>3.5629</v>
+        <v>12.858</v>
       </c>
       <c r="L76">
-        <v>3.6313</v>
+        <v>13.192</v>
       </c>
       <c r="M76">
-        <v>3.9312</v>
+        <v>13.535</v>
       </c>
       <c r="N76">
-        <v>4.4153</v>
+        <v>13.887</v>
       </c>
       <c r="O76">
-        <v>5.0031</v>
+        <v>14.248</v>
       </c>
       <c r="P76">
-        <v>5.9749</v>
+        <v>14.618</v>
       </c>
       <c r="Q76">
-        <v>7.2779</v>
+        <v>14.999</v>
       </c>
       <c r="R76">
-        <v>8.963100000000001</v>
+        <v>15.389</v>
       </c>
       <c r="S76">
-        <v>10.9568</v>
+        <v>15.789</v>
       </c>
       <c r="T76">
-        <v>13.1806</v>
+        <v>16.199</v>
       </c>
       <c r="U76">
-        <v>15.5542</v>
+        <v>16.62</v>
       </c>
       <c r="V76">
-        <v>18.813</v>
+        <v>17.052</v>
       </c>
       <c r="W76">
-        <v>22.6874</v>
+        <v>17.496</v>
       </c>
       <c r="X76">
-        <v>26.6236</v>
+        <v>17.951</v>
       </c>
       <c r="Y76">
-        <v>31.1085</v>
+        <v>18.417</v>
       </c>
       <c r="Z76">
-        <v>33.4738</v>
+        <v>18.896</v>
       </c>
       <c r="AA76">
-        <v>36.7282</v>
+        <v>19.388</v>
       </c>
       <c r="AB76">
-        <v>40.5792</v>
+        <v>19.892</v>
       </c>
       <c r="AC76">
-        <v>44.5064</v>
+        <v>20.409</v>
       </c>
       <c r="AD76">
-        <v>48.6605</v>
+        <v>20.939</v>
       </c>
       <c r="AE76">
-        <v>51.5078</v>
+        <v>21.484</v>
       </c>
       <c r="AF76">
-        <v>54.1693</v>
+        <v>22.042</v>
       </c>
       <c r="AG76">
-        <v>54.9969</v>
+        <v>22.616</v>
       </c>
       <c r="AH76">
-        <v>58.0291</v>
+        <v>23.204</v>
       </c>
       <c r="AI76">
-        <v>61.0446</v>
+        <v>23.834</v>
       </c>
       <c r="AJ76">
-        <v>64.336</v>
+        <v>24.779</v>
       </c>
     </row>
     <row r="77" spans="1:36">
@@ -8341,100 +8350,100 @@
         <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F77">
-        <v>0.8611</v>
+        <v>2.3121</v>
       </c>
       <c r="G77">
-        <v>0.8611</v>
+        <v>2.3095</v>
       </c>
       <c r="H77">
-        <v>0.8835</v>
+        <v>2.2863</v>
       </c>
       <c r="I77">
-        <v>0.9064000000000001</v>
+        <v>2.2633</v>
       </c>
       <c r="J77">
-        <v>0.93</v>
+        <v>2.2407</v>
       </c>
       <c r="K77">
-        <v>0.9542</v>
+        <v>2.2185</v>
       </c>
       <c r="L77">
-        <v>0.9791000000000001</v>
+        <v>2.1964</v>
       </c>
       <c r="M77">
-        <v>1.0045</v>
+        <v>2.1742</v>
       </c>
       <c r="N77">
-        <v>1.0305</v>
+        <v>2.1525</v>
       </c>
       <c r="O77">
-        <v>1.0574</v>
+        <v>2.0877</v>
       </c>
       <c r="P77">
-        <v>1.0849</v>
+        <v>2.0253</v>
       </c>
       <c r="Q77">
-        <v>1.1131</v>
+        <v>1.9643</v>
       </c>
       <c r="R77">
-        <v>1.1419</v>
+        <v>1.9055</v>
       </c>
       <c r="S77">
-        <v>1.1717</v>
+        <v>1.8488</v>
       </c>
       <c r="T77">
-        <v>1.2021</v>
+        <v>1.7561</v>
       </c>
       <c r="U77">
-        <v>1.2334</v>
+        <v>1.6686</v>
       </c>
       <c r="V77">
-        <v>1.2655</v>
+        <v>1.5848</v>
       </c>
       <c r="W77">
-        <v>1.2983</v>
+        <v>1.5059</v>
       </c>
       <c r="X77">
-        <v>1.3322</v>
+        <v>1.4303</v>
       </c>
       <c r="Y77">
-        <v>1.3668</v>
+        <v>1.2872</v>
       </c>
       <c r="Z77">
-        <v>1.4024</v>
+        <v>1.1586</v>
       </c>
       <c r="AA77">
-        <v>1.4389</v>
+        <v>1.0424</v>
       </c>
       <c r="AB77">
-        <v>1.4762</v>
+        <v>0.9385</v>
       </c>
       <c r="AC77">
-        <v>1.5146</v>
+        <v>0.8444</v>
       </c>
       <c r="AD77">
-        <v>1.554</v>
+        <v>0.4224</v>
       </c>
       <c r="AE77">
-        <v>1.5944</v>
+        <v>0.2109</v>
       </c>
       <c r="AF77">
-        <v>1.6359</v>
+        <v>0.1059</v>
       </c>
       <c r="AG77">
-        <v>1.6784</v>
+        <v>0.0528</v>
       </c>
       <c r="AH77">
-        <v>1.722</v>
+        <v>0.0266</v>
       </c>
       <c r="AI77">
-        <v>1.7668</v>
+        <v>0.0137</v>
       </c>
       <c r="AJ77">
-        <v>1.8127</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="78" spans="1:36">
@@ -8451,100 +8460,100 @@
         <v>113</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F78">
-        <v>14.2913</v>
+        <v>3.2796</v>
       </c>
       <c r="G78">
-        <v>14.2913</v>
+        <v>3.334</v>
       </c>
       <c r="H78">
-        <v>14.2913</v>
+        <v>3.4103</v>
       </c>
       <c r="I78">
-        <v>14.2913</v>
+        <v>3.4891</v>
       </c>
       <c r="J78">
-        <v>14.2913</v>
+        <v>3.5713</v>
       </c>
       <c r="K78">
-        <v>14.2913</v>
+        <v>3.5629</v>
       </c>
       <c r="L78">
-        <v>14.2913</v>
+        <v>3.6313</v>
       </c>
       <c r="M78">
-        <v>14.2913</v>
+        <v>3.9312</v>
       </c>
       <c r="N78">
-        <v>14.2913</v>
+        <v>4.4153</v>
       </c>
       <c r="O78">
-        <v>14.2913</v>
+        <v>5.0031</v>
       </c>
       <c r="P78">
-        <v>14.2913</v>
+        <v>5.9749</v>
       </c>
       <c r="Q78">
-        <v>14.2913</v>
+        <v>7.2779</v>
       </c>
       <c r="R78">
-        <v>14.2913</v>
+        <v>8.963100000000001</v>
       </c>
       <c r="S78">
-        <v>14.2913</v>
+        <v>10.9568</v>
       </c>
       <c r="T78">
-        <v>14.2913</v>
+        <v>13.1806</v>
       </c>
       <c r="U78">
-        <v>14.2913</v>
+        <v>15.5542</v>
       </c>
       <c r="V78">
-        <v>14.2913</v>
+        <v>18.813</v>
       </c>
       <c r="W78">
-        <v>14.2913</v>
+        <v>22.6874</v>
       </c>
       <c r="X78">
-        <v>14.2913</v>
+        <v>26.6236</v>
       </c>
       <c r="Y78">
-        <v>14.2913</v>
+        <v>31.1085</v>
       </c>
       <c r="Z78">
-        <v>14.2913</v>
+        <v>33.4738</v>
       </c>
       <c r="AA78">
-        <v>14.2913</v>
+        <v>36.7282</v>
       </c>
       <c r="AB78">
-        <v>14.2913</v>
+        <v>40.5792</v>
       </c>
       <c r="AC78">
-        <v>14.2913</v>
+        <v>44.5064</v>
       </c>
       <c r="AD78">
-        <v>14.2913</v>
+        <v>48.6605</v>
       </c>
       <c r="AE78">
-        <v>14.2913</v>
+        <v>51.5078</v>
       </c>
       <c r="AF78">
-        <v>14.2913</v>
+        <v>54.1693</v>
       </c>
       <c r="AG78">
-        <v>14.2913</v>
+        <v>54.9969</v>
       </c>
       <c r="AH78">
-        <v>14.2913</v>
+        <v>58.0291</v>
       </c>
       <c r="AI78">
-        <v>14.2913</v>
+        <v>61.0446</v>
       </c>
       <c r="AJ78">
-        <v>14.2913</v>
+        <v>64.336</v>
       </c>
     </row>
     <row r="79" spans="1:36">
@@ -8561,100 +8570,100 @@
         <v>114</v>
       </c>
       <c r="E79" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F79">
-        <v>318.7658</v>
+        <v>0.8611</v>
       </c>
       <c r="G79">
-        <v>318.6455</v>
+        <v>0.8611</v>
       </c>
       <c r="H79">
-        <v>320.5121</v>
+        <v>0.8835</v>
       </c>
       <c r="I79">
-        <v>322.2692</v>
+        <v>0.9064000000000001</v>
       </c>
       <c r="J79">
-        <v>323.9733</v>
+        <v>0.93</v>
       </c>
       <c r="K79">
-        <v>325.5671</v>
+        <v>0.9542</v>
       </c>
       <c r="L79">
-        <v>327.1125</v>
+        <v>0.9791000000000001</v>
       </c>
       <c r="M79">
-        <v>328.5485</v>
+        <v>1.0045</v>
       </c>
       <c r="N79">
-        <v>329.8569</v>
+        <v>1.0305</v>
       </c>
       <c r="O79">
-        <v>331.038</v>
+        <v>1.0574</v>
       </c>
       <c r="P79">
-        <v>332.1834</v>
+        <v>1.0849</v>
       </c>
       <c r="Q79">
-        <v>333.306</v>
+        <v>1.1131</v>
       </c>
       <c r="R79">
-        <v>334.3775</v>
+        <v>1.1419</v>
       </c>
       <c r="S79">
-        <v>335.3491</v>
+        <v>1.1717</v>
       </c>
       <c r="T79">
-        <v>336.181</v>
+        <v>1.2021</v>
       </c>
       <c r="U79">
-        <v>336.9309</v>
+        <v>1.2334</v>
       </c>
       <c r="V79">
-        <v>337.6221</v>
+        <v>1.2655</v>
       </c>
       <c r="W79">
-        <v>338.3195</v>
+        <v>1.2983</v>
       </c>
       <c r="X79">
-        <v>338.9057</v>
+        <v>1.3322</v>
       </c>
       <c r="Y79">
-        <v>339.3283</v>
+        <v>1.3668</v>
       </c>
       <c r="Z79">
-        <v>339.6048</v>
+        <v>1.4024</v>
       </c>
       <c r="AA79">
-        <v>339.8079</v>
+        <v>1.4389</v>
       </c>
       <c r="AB79">
-        <v>339.9376</v>
+        <v>1.4762</v>
       </c>
       <c r="AC79">
-        <v>340.001</v>
+        <v>1.5146</v>
       </c>
       <c r="AD79">
-        <v>339.5139</v>
+        <v>1.554</v>
       </c>
       <c r="AE79">
-        <v>339.1696</v>
+        <v>1.5944</v>
       </c>
       <c r="AF79">
-        <v>338.8282</v>
+        <v>1.6359</v>
       </c>
       <c r="AG79">
-        <v>338.4362</v>
+        <v>1.6784</v>
       </c>
       <c r="AH79">
-        <v>338.0102</v>
+        <v>1.722</v>
       </c>
       <c r="AI79">
-        <v>337.5425</v>
+        <v>1.7668</v>
       </c>
       <c r="AJ79">
-        <v>336.8029</v>
+        <v>1.8127</v>
       </c>
     </row>
     <row r="80" spans="1:36">
@@ -8674,97 +8683,97 @@
         <v>133</v>
       </c>
       <c r="F80">
-        <v>320.255</v>
+        <v>14.2913</v>
       </c>
       <c r="G80">
-        <v>320.2262</v>
+        <v>14.2913</v>
       </c>
       <c r="H80">
-        <v>324.9317</v>
+        <v>14.2913</v>
       </c>
       <c r="I80">
-        <v>331.8527</v>
+        <v>14.2913</v>
       </c>
       <c r="J80">
-        <v>338.7027</v>
+        <v>14.2913</v>
       </c>
       <c r="K80">
-        <v>345.4315</v>
+        <v>14.2913</v>
       </c>
       <c r="L80">
-        <v>352.1275</v>
+        <v>14.2913</v>
       </c>
       <c r="M80">
-        <v>358.7669</v>
+        <v>14.2913</v>
       </c>
       <c r="N80">
-        <v>365.3347</v>
+        <v>14.2913</v>
       </c>
       <c r="O80">
-        <v>371.8372</v>
+        <v>14.2913</v>
       </c>
       <c r="P80">
-        <v>378.2699</v>
+        <v>14.2913</v>
       </c>
       <c r="Q80">
-        <v>384.6435</v>
+        <v>14.2913</v>
       </c>
       <c r="R80">
-        <v>390.9544</v>
+        <v>14.2913</v>
       </c>
       <c r="S80">
-        <v>397.2022</v>
+        <v>14.2913</v>
       </c>
       <c r="T80">
-        <v>403.3881</v>
+        <v>14.2913</v>
       </c>
       <c r="U80">
-        <v>409.5136</v>
+        <v>14.2913</v>
       </c>
       <c r="V80">
-        <v>415.5814</v>
+        <v>14.2913</v>
       </c>
       <c r="W80">
-        <v>421.5911</v>
+        <v>14.2913</v>
       </c>
       <c r="X80">
-        <v>427.5467</v>
+        <v>14.2913</v>
       </c>
       <c r="Y80">
-        <v>433.4507</v>
+        <v>14.2913</v>
       </c>
       <c r="Z80">
-        <v>439.3046</v>
+        <v>14.2913</v>
       </c>
       <c r="AA80">
-        <v>445.1146</v>
+        <v>14.2913</v>
       </c>
       <c r="AB80">
-        <v>450.882</v>
+        <v>14.2913</v>
       </c>
       <c r="AC80">
-        <v>456.6122</v>
+        <v>14.2913</v>
       </c>
       <c r="AD80">
-        <v>462.3118</v>
+        <v>14.2913</v>
       </c>
       <c r="AE80">
-        <v>467.9858</v>
+        <v>14.2913</v>
       </c>
       <c r="AF80">
-        <v>473.6455</v>
+        <v>14.2913</v>
       </c>
       <c r="AG80">
-        <v>479.2987</v>
+        <v>14.2913</v>
       </c>
       <c r="AH80">
-        <v>484.955</v>
+        <v>14.2913</v>
       </c>
       <c r="AI80">
-        <v>490.6307</v>
+        <v>14.2913</v>
       </c>
       <c r="AJ80">
-        <v>495.9563</v>
+        <v>14.2913</v>
       </c>
     </row>
     <row r="81" spans="1:36">
@@ -8781,100 +8790,100 @@
         <v>116</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F81">
-        <v>1.8712</v>
+        <v>318.7658</v>
       </c>
       <c r="G81">
-        <v>1.8714</v>
+        <v>318.6455</v>
       </c>
       <c r="H81">
-        <v>1.8714</v>
+        <v>320.5121</v>
       </c>
       <c r="I81">
-        <v>1.9207</v>
+        <v>322.2692</v>
       </c>
       <c r="J81">
-        <v>1.9714</v>
+        <v>323.9733</v>
       </c>
       <c r="K81">
-        <v>2.0234</v>
+        <v>325.5671</v>
       </c>
       <c r="L81">
-        <v>2.0768</v>
+        <v>327.1125</v>
       </c>
       <c r="M81">
-        <v>2.1316</v>
+        <v>328.5485</v>
       </c>
       <c r="N81">
-        <v>2.188</v>
+        <v>329.8569</v>
       </c>
       <c r="O81">
-        <v>2.2458</v>
+        <v>331.038</v>
       </c>
       <c r="P81">
-        <v>2.3049</v>
+        <v>332.1834</v>
       </c>
       <c r="Q81">
-        <v>2.3659</v>
+        <v>333.306</v>
       </c>
       <c r="R81">
-        <v>2.4282</v>
+        <v>334.3775</v>
       </c>
       <c r="S81">
-        <v>2.4925</v>
+        <v>335.3491</v>
       </c>
       <c r="T81">
-        <v>2.5581</v>
+        <v>336.181</v>
       </c>
       <c r="U81">
-        <v>2.6257</v>
+        <v>336.9309</v>
       </c>
       <c r="V81">
-        <v>2.6951</v>
+        <v>337.6221</v>
       </c>
       <c r="W81">
-        <v>2.766</v>
+        <v>338.3195</v>
       </c>
       <c r="X81">
-        <v>2.8392</v>
+        <v>338.9057</v>
       </c>
       <c r="Y81">
-        <v>2.9142</v>
+        <v>339.3283</v>
       </c>
       <c r="Z81">
-        <v>2.9912</v>
+        <v>339.6048</v>
       </c>
       <c r="AA81">
-        <v>3.07</v>
+        <v>339.8079</v>
       </c>
       <c r="AB81">
-        <v>3.151</v>
+        <v>339.9376</v>
       </c>
       <c r="AC81">
-        <v>3.2343</v>
+        <v>340.001</v>
       </c>
       <c r="AD81">
-        <v>3.3197</v>
+        <v>339.5139</v>
       </c>
       <c r="AE81">
-        <v>3.4073</v>
+        <v>339.1696</v>
       </c>
       <c r="AF81">
-        <v>3.4975</v>
+        <v>338.8282</v>
       </c>
       <c r="AG81">
-        <v>3.5896</v>
+        <v>338.4362</v>
       </c>
       <c r="AH81">
-        <v>3.6844</v>
+        <v>338.0102</v>
       </c>
       <c r="AI81">
-        <v>3.7816</v>
+        <v>337.5425</v>
       </c>
       <c r="AJ81">
-        <v>3.8815</v>
+        <v>336.8029</v>
       </c>
     </row>
     <row r="82" spans="1:36">
@@ -8891,100 +8900,100 @@
         <v>117</v>
       </c>
       <c r="E82" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F82">
-        <v>0.7020999999999999</v>
+        <v>320.255</v>
       </c>
       <c r="G82">
-        <v>0.7373</v>
+        <v>320.2262</v>
       </c>
       <c r="H82">
-        <v>0.774</v>
+        <v>324.9317</v>
       </c>
       <c r="I82">
-        <v>0.8127000000000001</v>
+        <v>331.8527</v>
       </c>
       <c r="J82">
-        <v>0.8533999999999999</v>
+        <v>338.7027</v>
       </c>
       <c r="K82">
-        <v>0.896</v>
+        <v>345.4315</v>
       </c>
       <c r="L82">
-        <v>0.9407</v>
+        <v>352.1275</v>
       </c>
       <c r="M82">
-        <v>1.129</v>
+        <v>358.7669</v>
       </c>
       <c r="N82">
-        <v>1.3546</v>
+        <v>365.3347</v>
       </c>
       <c r="O82">
-        <v>1.6257</v>
+        <v>371.8372</v>
       </c>
       <c r="P82">
-        <v>1.9508</v>
+        <v>378.2699</v>
       </c>
       <c r="Q82">
-        <v>2.341</v>
+        <v>384.6435</v>
       </c>
       <c r="R82">
-        <v>2.8092</v>
+        <v>390.9544</v>
       </c>
       <c r="S82">
-        <v>3.3709</v>
+        <v>397.2022</v>
       </c>
       <c r="T82">
-        <v>4.045199999999999</v>
+        <v>403.3881</v>
       </c>
       <c r="U82">
-        <v>4.854200000000001</v>
+        <v>409.5136</v>
       </c>
       <c r="V82">
-        <v>5.824999999999999</v>
+        <v>415.5814</v>
       </c>
       <c r="W82">
-        <v>6.9901</v>
+        <v>421.5911</v>
       </c>
       <c r="X82">
-        <v>8.3881</v>
+        <v>427.5467</v>
       </c>
       <c r="Y82">
-        <v>10.0658</v>
+        <v>433.4507</v>
       </c>
       <c r="Z82">
-        <v>10.1724</v>
+        <v>439.3046</v>
       </c>
       <c r="AA82">
-        <v>11.0913</v>
+        <v>445.1146</v>
       </c>
       <c r="AB82">
-        <v>12.613</v>
+        <v>450.882</v>
       </c>
       <c r="AC82">
-        <v>14.1613</v>
+        <v>456.6122</v>
       </c>
       <c r="AD82">
-        <v>15.7238</v>
+        <v>462.3118</v>
       </c>
       <c r="AE82">
-        <v>16.2799</v>
+        <v>467.9858</v>
       </c>
       <c r="AF82">
-        <v>16.8848</v>
+        <v>473.6455</v>
       </c>
       <c r="AG82">
-        <v>15.9082</v>
+        <v>479.2987</v>
       </c>
       <c r="AH82">
-        <v>17.2874</v>
+        <v>484.955</v>
       </c>
       <c r="AI82">
-        <v>18.633</v>
+        <v>490.6307</v>
       </c>
       <c r="AJ82">
-        <v>20.202</v>
+        <v>495.9563</v>
       </c>
     </row>
     <row r="83" spans="1:36">
@@ -9001,100 +9010,100 @@
         <v>118</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F83">
-        <v>1.7167</v>
+        <v>1.8712</v>
       </c>
       <c r="G83">
-        <v>1.7356</v>
+        <v>1.8714</v>
       </c>
       <c r="H83">
-        <v>1.7524</v>
+        <v>1.8714</v>
       </c>
       <c r="I83">
-        <v>1.7702</v>
+        <v>1.9207</v>
       </c>
       <c r="J83">
-        <v>1.7877</v>
+        <v>1.9714</v>
       </c>
       <c r="K83">
-        <v>1.7124</v>
+        <v>2.0234</v>
       </c>
       <c r="L83">
-        <v>1.7116</v>
+        <v>2.0768</v>
       </c>
       <c r="M83">
-        <v>1.7976</v>
+        <v>2.1316</v>
       </c>
       <c r="N83">
-        <v>2.0295</v>
+        <v>2.188</v>
       </c>
       <c r="O83">
-        <v>2.3197</v>
+        <v>2.2458</v>
       </c>
       <c r="P83">
-        <v>2.9389</v>
+        <v>2.3049</v>
       </c>
       <c r="Q83">
-        <v>3.8237</v>
+        <v>2.3659</v>
       </c>
       <c r="R83">
-        <v>5.0123</v>
+        <v>2.4282</v>
       </c>
       <c r="S83">
-        <v>6.4144</v>
+        <v>2.4925</v>
       </c>
       <c r="T83">
-        <v>7.9331</v>
+        <v>2.5581</v>
       </c>
       <c r="U83">
-        <v>9.4665</v>
+        <v>2.6257</v>
       </c>
       <c r="V83">
-        <v>11.7226</v>
+        <v>2.6951</v>
       </c>
       <c r="W83">
-        <v>14.3989</v>
+        <v>2.766</v>
       </c>
       <c r="X83">
-        <v>16.9033</v>
+        <v>2.8392</v>
       </c>
       <c r="Y83">
-        <v>19.6759</v>
+        <v>2.9142</v>
       </c>
       <c r="Z83">
-        <v>21.8991</v>
+        <v>2.9912</v>
       </c>
       <c r="AA83">
-        <v>24.1986</v>
+        <v>3.07</v>
       </c>
       <c r="AB83">
-        <v>26.4899</v>
+        <v>3.151</v>
       </c>
       <c r="AC83">
-        <v>28.8307</v>
+        <v>3.2343</v>
       </c>
       <c r="AD83">
-        <v>31.3828</v>
+        <v>3.3197</v>
       </c>
       <c r="AE83">
-        <v>33.6335</v>
+        <v>3.4073</v>
       </c>
       <c r="AF83">
-        <v>35.6489</v>
+        <v>3.4975</v>
       </c>
       <c r="AG83">
-        <v>37.4097</v>
+        <v>3.5896</v>
       </c>
       <c r="AH83">
-        <v>39.0197</v>
+        <v>3.6844</v>
       </c>
       <c r="AI83">
-        <v>40.6447</v>
+        <v>3.7816</v>
       </c>
       <c r="AJ83">
-        <v>42.321</v>
+        <v>3.8815</v>
       </c>
     </row>
     <row r="84" spans="1:36">
@@ -9111,100 +9120,100 @@
         <v>119</v>
       </c>
       <c r="E84" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F84">
-        <v>3.7961</v>
+        <v>0.7020999999999999</v>
       </c>
       <c r="G84">
-        <v>3.8002</v>
+        <v>0.7373</v>
       </c>
       <c r="H84">
-        <v>3.8255</v>
+        <v>0.774</v>
       </c>
       <c r="I84">
-        <v>3.9</v>
+        <v>0.8127000000000001</v>
       </c>
       <c r="J84">
-        <v>3.9723</v>
+        <v>0.8533999999999999</v>
       </c>
       <c r="K84">
-        <v>4.035600000000001</v>
+        <v>0.896</v>
       </c>
       <c r="L84">
-        <v>4.0976</v>
+        <v>0.9407</v>
       </c>
       <c r="M84">
-        <v>4.1534</v>
+        <v>1.129</v>
       </c>
       <c r="N84">
-        <v>4.2033</v>
+        <v>1.3546</v>
       </c>
       <c r="O84">
-        <v>4.247</v>
+        <v>1.6257</v>
       </c>
       <c r="P84">
-        <v>4.3008</v>
+        <v>1.9508</v>
       </c>
       <c r="Q84">
-        <v>4.3634</v>
+        <v>2.341</v>
       </c>
       <c r="R84">
-        <v>4.435</v>
+        <v>2.8092</v>
       </c>
       <c r="S84">
-        <v>4.505100000000001</v>
+        <v>3.3709</v>
       </c>
       <c r="T84">
-        <v>4.5702</v>
+        <v>4.045199999999999</v>
       </c>
       <c r="U84">
-        <v>4.6305</v>
+        <v>4.854200000000001</v>
       </c>
       <c r="V84">
-        <v>4.7057</v>
+        <v>5.824999999999999</v>
       </c>
       <c r="W84">
-        <v>4.8076</v>
+        <v>6.9901</v>
       </c>
       <c r="X84">
-        <v>4.8961</v>
+        <v>8.3881</v>
       </c>
       <c r="Y84">
-        <v>4.9839</v>
+        <v>10.0658</v>
       </c>
       <c r="Z84">
-        <v>5.0421</v>
+        <v>10.1724</v>
       </c>
       <c r="AA84">
-        <v>5.0982</v>
+        <v>11.0913</v>
       </c>
       <c r="AB84">
-        <v>5.1467</v>
+        <v>12.613</v>
       </c>
       <c r="AC84">
-        <v>5.1886</v>
+        <v>14.1613</v>
       </c>
       <c r="AD84">
-        <v>5.2008</v>
+        <v>15.7238</v>
       </c>
       <c r="AE84">
-        <v>5.2098</v>
+        <v>16.2799</v>
       </c>
       <c r="AF84">
-        <v>5.208600000000001</v>
+        <v>16.8848</v>
       </c>
       <c r="AG84">
-        <v>5.1926</v>
+        <v>15.9082</v>
       </c>
       <c r="AH84">
-        <v>5.169</v>
+        <v>17.2874</v>
       </c>
       <c r="AI84">
-        <v>5.1419</v>
+        <v>18.633</v>
       </c>
       <c r="AJ84">
-        <v>5.1048</v>
+        <v>20.202</v>
       </c>
     </row>
     <row r="85" spans="1:36">
@@ -9224,96 +9233,316 @@
         <v>136</v>
       </c>
       <c r="F85">
+        <v>1.7167</v>
+      </c>
+      <c r="G85">
+        <v>1.7356</v>
+      </c>
+      <c r="H85">
+        <v>1.7524</v>
+      </c>
+      <c r="I85">
+        <v>1.7702</v>
+      </c>
+      <c r="J85">
+        <v>1.7877</v>
+      </c>
+      <c r="K85">
+        <v>1.7124</v>
+      </c>
+      <c r="L85">
+        <v>1.7116</v>
+      </c>
+      <c r="M85">
+        <v>1.7976</v>
+      </c>
+      <c r="N85">
+        <v>2.0295</v>
+      </c>
+      <c r="O85">
+        <v>2.3197</v>
+      </c>
+      <c r="P85">
+        <v>2.9389</v>
+      </c>
+      <c r="Q85">
+        <v>3.8237</v>
+      </c>
+      <c r="R85">
+        <v>5.0123</v>
+      </c>
+      <c r="S85">
+        <v>6.4144</v>
+      </c>
+      <c r="T85">
+        <v>7.9331</v>
+      </c>
+      <c r="U85">
+        <v>9.4665</v>
+      </c>
+      <c r="V85">
+        <v>11.7226</v>
+      </c>
+      <c r="W85">
+        <v>14.3989</v>
+      </c>
+      <c r="X85">
+        <v>16.9033</v>
+      </c>
+      <c r="Y85">
+        <v>19.6759</v>
+      </c>
+      <c r="Z85">
+        <v>21.8991</v>
+      </c>
+      <c r="AA85">
+        <v>24.1986</v>
+      </c>
+      <c r="AB85">
+        <v>26.4899</v>
+      </c>
+      <c r="AC85">
+        <v>28.8307</v>
+      </c>
+      <c r="AD85">
+        <v>31.3828</v>
+      </c>
+      <c r="AE85">
+        <v>33.6335</v>
+      </c>
+      <c r="AF85">
+        <v>35.6489</v>
+      </c>
+      <c r="AG85">
+        <v>37.4097</v>
+      </c>
+      <c r="AH85">
+        <v>39.0197</v>
+      </c>
+      <c r="AI85">
+        <v>40.6447</v>
+      </c>
+      <c r="AJ85">
+        <v>42.321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86">
+        <v>3.7961</v>
+      </c>
+      <c r="G86">
+        <v>3.8002</v>
+      </c>
+      <c r="H86">
+        <v>3.8255</v>
+      </c>
+      <c r="I86">
+        <v>3.9</v>
+      </c>
+      <c r="J86">
+        <v>3.9723</v>
+      </c>
+      <c r="K86">
+        <v>4.035600000000001</v>
+      </c>
+      <c r="L86">
+        <v>4.0976</v>
+      </c>
+      <c r="M86">
+        <v>4.1534</v>
+      </c>
+      <c r="N86">
+        <v>4.2033</v>
+      </c>
+      <c r="O86">
+        <v>4.247</v>
+      </c>
+      <c r="P86">
+        <v>4.3008</v>
+      </c>
+      <c r="Q86">
+        <v>4.3634</v>
+      </c>
+      <c r="R86">
+        <v>4.435</v>
+      </c>
+      <c r="S86">
+        <v>4.505100000000001</v>
+      </c>
+      <c r="T86">
+        <v>4.5702</v>
+      </c>
+      <c r="U86">
+        <v>4.6305</v>
+      </c>
+      <c r="V86">
+        <v>4.7057</v>
+      </c>
+      <c r="W86">
+        <v>4.8076</v>
+      </c>
+      <c r="X86">
+        <v>4.8961</v>
+      </c>
+      <c r="Y86">
+        <v>4.9839</v>
+      </c>
+      <c r="Z86">
+        <v>5.0421</v>
+      </c>
+      <c r="AA86">
+        <v>5.0982</v>
+      </c>
+      <c r="AB86">
+        <v>5.1467</v>
+      </c>
+      <c r="AC86">
+        <v>5.1886</v>
+      </c>
+      <c r="AD86">
+        <v>5.2008</v>
+      </c>
+      <c r="AE86">
+        <v>5.2098</v>
+      </c>
+      <c r="AF86">
+        <v>5.208600000000001</v>
+      </c>
+      <c r="AG86">
+        <v>5.1926</v>
+      </c>
+      <c r="AH86">
+        <v>5.169</v>
+      </c>
+      <c r="AI86">
+        <v>5.1419</v>
+      </c>
+      <c r="AJ86">
+        <v>5.1048</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87">
         <v>2.344</v>
       </c>
-      <c r="G85">
+      <c r="G87">
         <v>4.342</v>
       </c>
-      <c r="H85">
+      <c r="H87">
         <v>6.342</v>
       </c>
-      <c r="I85">
+      <c r="I87">
         <v>0.342</v>
       </c>
-      <c r="J85">
+      <c r="J87">
         <v>0.342</v>
       </c>
-      <c r="K85">
+      <c r="K87">
         <v>0.342</v>
       </c>
-      <c r="L85">
+      <c r="L87">
         <v>0.342</v>
       </c>
-      <c r="M85">
+      <c r="M87">
         <v>0.342</v>
       </c>
-      <c r="N85">
+      <c r="N87">
         <v>0.342</v>
       </c>
-      <c r="O85">
+      <c r="O87">
         <v>0.342</v>
       </c>
-      <c r="P85">
+      <c r="P87">
         <v>0.342</v>
       </c>
-      <c r="Q85">
+      <c r="Q87">
         <v>0.342</v>
       </c>
-      <c r="R85">
+      <c r="R87">
         <v>0.342</v>
       </c>
-      <c r="S85">
+      <c r="S87">
         <v>0.342</v>
       </c>
-      <c r="T85">
+      <c r="T87">
         <v>0.342</v>
       </c>
-      <c r="U85">
+      <c r="U87">
         <v>0.342</v>
       </c>
-      <c r="V85">
+      <c r="V87">
         <v>0.342</v>
       </c>
-      <c r="W85">
+      <c r="W87">
         <v>0.342</v>
       </c>
-      <c r="X85">
+      <c r="X87">
         <v>0.342</v>
       </c>
-      <c r="Y85">
+      <c r="Y87">
         <v>0.342</v>
       </c>
-      <c r="Z85">
+      <c r="Z87">
         <v>0.342</v>
       </c>
-      <c r="AA85">
+      <c r="AA87">
         <v>0.342</v>
       </c>
-      <c r="AB85">
+      <c r="AB87">
         <v>0.342</v>
       </c>
-      <c r="AC85">
+      <c r="AC87">
         <v>0.342</v>
       </c>
-      <c r="AD85">
+      <c r="AD87">
         <v>0.342</v>
       </c>
-      <c r="AE85">
+      <c r="AE87">
         <v>0.342</v>
       </c>
-      <c r="AF85">
+      <c r="AF87">
         <v>0.342</v>
       </c>
-      <c r="AG85">
+      <c r="AG87">
         <v>0.342</v>
       </c>
-      <c r="AH85">
+      <c r="AH87">
         <v>0.342</v>
       </c>
-      <c r="AI85">
+      <c r="AI87">
         <v>0.342</v>
       </c>
-      <c r="AJ85">
+      <c r="AJ87">
         <v>0.339</v>
       </c>
     </row>
